--- a/data/trans_orig/IP1021_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{992E0494-9244-4464-9ECA-648471B4A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{232852D3-C91E-4EF7-A09D-DB72D6329AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E5CF48F-EC6B-4F0B-B3A9-765E7A588EFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4121902F-BE92-48E3-B7BE-03CA4D9D4434}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Menores según si padecen dolor crónico en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -101,13 +101,13 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>9,94%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,8%</t>
@@ -116,25 +116,25 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>91,39%</t>
+    <t>90,06%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>95,85%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>94,36%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -146,55 +146,55 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -203,79 +203,85 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -690,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E606B7A3-F62C-4AC1-9527-ACB9CB89B696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4056A7A2-5CD2-4A32-9352-6E1A01C901E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1291,10 +1297,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -1306,10 +1312,10 @@
         <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1324,13 +1330,13 @@
         <v>169733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -1339,13 +1345,13 @@
         <v>147622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>456</v>
@@ -1354,13 +1360,13 @@
         <v>317355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,13 +1434,13 @@
         <v>11660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1446,10 +1452,10 @@
         <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -1458,13 +1464,13 @@
         <v>24918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,13 +1485,13 @@
         <v>713505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -1497,10 +1503,10 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
@@ -1509,13 +1515,13 @@
         <v>1353126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,7 +1577,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1021_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{232852D3-C91E-4EF7-A09D-DB72D6329AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CFABF3-944D-4AC2-9A51-EA421A840706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4121902F-BE92-48E3-B7BE-03CA4D9D4434}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{6C16CAD7-1A9A-4EAB-AAD6-3410745E2E87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Menores según si padecen dolor crónico en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,223 +65,220 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>97,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -696,8 +693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4056A7A2-5CD2-4A32-9352-6E1A01C901E6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B835EC2-57EA-425B-A3B1-B3BD0BD23252}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -814,96 +811,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>391</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54287</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>60189</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>114475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -912,151 +913,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>1591</v>
+        <v>8963</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>6002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7">
         <v>23</v>
       </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
       <c r="N7" s="7">
-        <v>1982</v>
+        <v>14965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>57166</v>
+        <v>450731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>648</v>
       </c>
       <c r="I8" s="7">
-        <v>50811</v>
+        <v>510617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>149</v>
+        <v>1275</v>
       </c>
       <c r="N8" s="7">
-        <v>107977</v>
+        <v>961348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1065,153 +1068,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5759</v>
+        <v>3730</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>9120</v>
+        <v>4926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>14878</v>
+        <v>8656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>648</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>486605</v>
+        <v>145821</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>440016</v>
+        <v>177887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>1275</v>
+        <v>456</v>
       </c>
       <c r="N11" s="7">
-        <v>926622</v>
+        <v>323709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1220,153 +1223,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>182813</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332365</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>4310</v>
+        <v>13084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>3748</v>
+        <v>12743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>8058</v>
+        <v>25827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>919</v>
       </c>
       <c r="D14" s="7">
-        <v>169733</v>
+        <v>650839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>961</v>
       </c>
       <c r="I14" s="7">
-        <v>147622</v>
+        <v>748693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>456</v>
+        <v>1880</v>
       </c>
       <c r="N14" s="7">
-        <v>317355</v>
+        <v>1399532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1375,216 +1378,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174043</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761436</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325413</v>
+        <v>1425359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7">
-        <v>11660</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13259</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="7">
-        <v>37</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24918</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>961</v>
-      </c>
-      <c r="D17" s="7">
-        <v>713505</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="7">
-        <v>920</v>
-      </c>
-      <c r="I17" s="7">
-        <v>639620</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1353126</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
+      <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725165</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378044</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
